--- a/MobileFramework/db/priority.xlsx
+++ b/MobileFramework/db/priority.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5680" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="2279">
   <si>
     <t>Bucket_ID</t>
   </si>
@@ -6856,6 +6856,12 @@
   </si>
   <si>
     <t>remaining</t>
+  </si>
+  <si>
+    <t>A64</t>
+  </si>
+  <si>
+    <t>Local Discount Rate</t>
   </si>
 </sst>
 </file>
@@ -6918,7 +6924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -7064,12 +7070,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7103,6 +7118,9 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7384,9 +7402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1867"/>
+  <dimension ref="A1:E1868"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1840" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1868" sqref="E1868"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39134,6 +39154,23 @@
         <v>2270</v>
       </c>
     </row>
+    <row r="1868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1868" s="11" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1868" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1868" s="17">
+        <v>80</v>
+      </c>
+      <c r="D1868">
+        <v>1</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>2250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39144,7 +39181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
